--- a/words.xlsx
+++ b/words.xlsx
@@ -1121,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -1199,6 +1199,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>jywyes</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>user_end_point</t>
         </is>
       </c>
@@ -1247,6 +1252,11 @@
           <t>disregard</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -1254,6 +1264,11 @@
           <t>disrupt</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1261,6 +1276,11 @@
           <t>dissipate</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1331,6 +1351,11 @@
           <t>dizzy</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1338,6 +1363,11 @@
           <t>dock</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1352,6 +1382,11 @@
           <t>domain</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1380,6 +1415,11 @@
           <t>drag</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1394,6 +1434,11 @@
           <t>dramatic</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1413,6 +1458,11 @@
       <c r="A31" s="4" t="inlineStr">
         <is>
           <t>dread</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1、1</t>
         </is>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1121,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -1375,6 +1375,11 @@
           <t>doctrine</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1394,6 +1399,11 @@
           <t>dome</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -1477,6 +1487,11 @@
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>drought</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1、1</t>
         </is>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1295,6 +1295,11 @@
           <t>distort</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -1302,6 +1307,11 @@
           <t>distract</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1309,6 +1319,11 @@
           <t>district</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1323,6 +1338,11 @@
           <t>diversion</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1330,6 +1350,11 @@
           <t>divert</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1363,6 +1388,11 @@
           <t>dock</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>1、1</t>
@@ -1411,6 +1441,11 @@
           <t>donate</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -1418,6 +1453,11 @@
           <t>doom</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1463,6 +1503,11 @@
           <t>drawback</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1472,7 +1517,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1、1</t>
+          <t>2、2</t>
         </is>
       </c>
     </row>
@@ -1508,6 +1553,11 @@
           <t>dubious</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -1515,6 +1565,11 @@
           <t>duration</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -1522,6 +1577,11 @@
           <t>dwell</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1、1</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -1555,6 +1615,11 @@
       <c r="A42" s="4" t="inlineStr">
         <is>
           <t>ecology</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1、1</t>
         </is>
       </c>
     </row>
